--- a/工资发放表/工资表 - 下埚小学.xlsx
+++ b/工资发放表/工资表 - 下埚小学.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\工资发放表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B649ECE-16C3-447B-9371-17F5BA098FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C76C8DC-B728-4891-AE97-EF9C9CBE792A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="下埚小学" sheetId="1" r:id="rId1"/>
+    <sheet name="五月" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">下埚小学!$A$1:$I$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">五月!$A$1:$I$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -683,7 +683,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
